--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H2">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I2">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J2">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6441970520611791</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N2">
-        <v>0.6441970520611791</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q2">
-        <v>0.008697602537284134</v>
+        <v>0.04958397757999999</v>
       </c>
       <c r="R2">
-        <v>0.008697602537284134</v>
+        <v>0.4462557982199999</v>
       </c>
       <c r="S2">
-        <v>0.01060533602166042</v>
+        <v>0.01922689912239772</v>
       </c>
       <c r="T2">
-        <v>0.01060533602166042</v>
+        <v>0.01922689912239772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H3">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I3">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J3">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.32323296953614</v>
+        <v>1.401354</v>
       </c>
       <c r="N3">
-        <v>1.32323296953614</v>
+        <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q3">
-        <v>0.01786558072010946</v>
+        <v>0.02646457029</v>
       </c>
       <c r="R3">
-        <v>0.01786558072010946</v>
+        <v>0.23818113261</v>
       </c>
       <c r="S3">
-        <v>0.02178421995563179</v>
+        <v>0.01026201704900484</v>
       </c>
       <c r="T3">
-        <v>0.02178421995563179</v>
+        <v>0.01026201704900484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H4">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I4">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J4">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.698647115963187</v>
+        <v>0.066056</v>
       </c>
       <c r="N4">
-        <v>0.698647115963187</v>
+        <v>0.198168</v>
       </c>
       <c r="O4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q4">
-        <v>0.009432758049769173</v>
+        <v>0.00124746756</v>
       </c>
       <c r="R4">
-        <v>0.009432758049769173</v>
+        <v>0.01122720804</v>
       </c>
       <c r="S4">
-        <v>0.01150174065784127</v>
+        <v>0.0004837234547366788</v>
       </c>
       <c r="T4">
-        <v>0.01150174065784127</v>
+        <v>0.0004837234547366787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.165837508187592</v>
+        <v>0.018885</v>
       </c>
       <c r="H5">
-        <v>0.165837508187592</v>
+        <v>0.056655</v>
       </c>
       <c r="I5">
-        <v>0.5391136775619298</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J5">
-        <v>0.5391136775619298</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6441970520611791</v>
+        <v>0.704398</v>
       </c>
       <c r="N5">
-        <v>0.6441970520611791</v>
+        <v>2.113194</v>
       </c>
       <c r="O5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q5">
-        <v>0.1068320338956184</v>
+        <v>0.01330255623</v>
       </c>
       <c r="R5">
-        <v>0.1068320338956184</v>
+        <v>0.11972300607</v>
       </c>
       <c r="S5">
-        <v>0.1302645887166775</v>
+        <v>0.005158257146506101</v>
       </c>
       <c r="T5">
-        <v>0.1302645887166775</v>
+        <v>0.005158257146506101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.165837508187592</v>
+        <v>0.166264</v>
       </c>
       <c r="H6">
-        <v>0.165837508187592</v>
+        <v>0.498792</v>
       </c>
       <c r="I6">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J6">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32323296953614</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N6">
-        <v>1.32323296953614</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q6">
-        <v>0.2194416584195413</v>
+        <v>0.4365385463786666</v>
       </c>
       <c r="R6">
-        <v>0.2194416584195413</v>
+        <v>3.928846917408</v>
       </c>
       <c r="S6">
-        <v>0.2675740256827553</v>
+        <v>0.1692740882015533</v>
       </c>
       <c r="T6">
-        <v>0.2675740256827553</v>
+        <v>0.1692740882015533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.165837508187592</v>
+        <v>0.166264</v>
       </c>
       <c r="H7">
-        <v>0.165837508187592</v>
+        <v>0.498792</v>
       </c>
       <c r="I7">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J7">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.698647115963187</v>
+        <v>1.401354</v>
       </c>
       <c r="N7">
-        <v>0.698647115963187</v>
+        <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q7">
-        <v>0.1158618968137825</v>
+        <v>0.232994721456</v>
       </c>
       <c r="R7">
-        <v>0.1158618968137825</v>
+        <v>2.096952493104</v>
       </c>
       <c r="S7">
-        <v>0.141275063162497</v>
+        <v>0.09034704806119889</v>
       </c>
       <c r="T7">
-        <v>0.141275063162497</v>
+        <v>0.09034704806119889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.128272419869807</v>
+        <v>0.166264</v>
       </c>
       <c r="H8">
-        <v>0.128272419869807</v>
+        <v>0.498792</v>
       </c>
       <c r="I8">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J8">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.6441970520611791</v>
+        <v>0.066056</v>
       </c>
       <c r="N8">
-        <v>0.6441970520611791</v>
+        <v>0.198168</v>
       </c>
       <c r="O8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q8">
-        <v>0.08263271474088348</v>
+        <v>0.010982734784</v>
       </c>
       <c r="R8">
-        <v>0.08263271474088348</v>
+        <v>0.09884461305600001</v>
       </c>
       <c r="S8">
-        <v>0.1007573871595568</v>
+        <v>0.004258713078016371</v>
       </c>
       <c r="T8">
-        <v>0.1007573871595568</v>
+        <v>0.004258713078016371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.128272419869807</v>
+        <v>0.166264</v>
       </c>
       <c r="H9">
-        <v>0.128272419869807</v>
+        <v>0.498792</v>
       </c>
       <c r="I9">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J9">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.32323296953614</v>
+        <v>0.704398</v>
       </c>
       <c r="N9">
-        <v>1.32323296953614</v>
+        <v>2.113194</v>
       </c>
       <c r="O9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q9">
-        <v>0.1697342950539113</v>
+        <v>0.117116029072</v>
       </c>
       <c r="R9">
-        <v>0.1697342950539113</v>
+        <v>1.054044261648</v>
       </c>
       <c r="S9">
-        <v>0.2069638415563272</v>
+        <v>0.04541342156244058</v>
       </c>
       <c r="T9">
-        <v>0.2069638415563272</v>
+        <v>0.04541342156244059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.109935</v>
+      </c>
+      <c r="H10">
+        <v>0.329805</v>
+      </c>
+      <c r="I10">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J10">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P10">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q10">
+        <v>0.28864255098</v>
+      </c>
+      <c r="R10">
+        <v>2.59778295882</v>
+      </c>
+      <c r="S10">
+        <v>0.1119252928260944</v>
+      </c>
+      <c r="T10">
+        <v>0.1119252928260944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.109935</v>
+      </c>
+      <c r="H11">
+        <v>0.329805</v>
+      </c>
+      <c r="I11">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J11">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.401354</v>
+      </c>
+      <c r="N11">
+        <v>4.204062</v>
+      </c>
+      <c r="O11">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P11">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q11">
+        <v>0.15405785199</v>
+      </c>
+      <c r="R11">
+        <v>1.38652066791</v>
+      </c>
+      <c r="S11">
+        <v>0.05973814372689158</v>
+      </c>
+      <c r="T11">
+        <v>0.05973814372689156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.109935</v>
+      </c>
+      <c r="H12">
+        <v>0.329805</v>
+      </c>
+      <c r="I12">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J12">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.066056</v>
+      </c>
+      <c r="N12">
+        <v>0.198168</v>
+      </c>
+      <c r="O12">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P12">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q12">
+        <v>0.007261866360000001</v>
+      </c>
+      <c r="R12">
+        <v>0.06535679724</v>
+      </c>
+      <c r="S12">
+        <v>0.002815892930710976</v>
+      </c>
+      <c r="T12">
+        <v>0.002815892930710976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.109935</v>
+      </c>
+      <c r="H13">
+        <v>0.329805</v>
+      </c>
+      <c r="I13">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J13">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.704398</v>
+      </c>
+      <c r="N13">
+        <v>2.113194</v>
+      </c>
+      <c r="O13">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P13">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q13">
+        <v>0.07743799413000001</v>
+      </c>
+      <c r="R13">
+        <v>0.69694194717</v>
+      </c>
+      <c r="S13">
+        <v>0.03002769390527658</v>
+      </c>
+      <c r="T13">
+        <v>0.03002769390527658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.23617</v>
+      </c>
+      <c r="I14">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J14">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N14">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P14">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q14">
+        <v>0.2066939896755555</v>
+      </c>
+      <c r="R14">
+        <v>1.86024590708</v>
+      </c>
+      <c r="S14">
+        <v>0.08014856174630074</v>
+      </c>
+      <c r="T14">
+        <v>0.08014856174630075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.23617</v>
+      </c>
+      <c r="I15">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J15">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.401354</v>
+      </c>
+      <c r="N15">
+        <v>4.204062</v>
+      </c>
+      <c r="O15">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P15">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q15">
+        <v>0.11031925806</v>
+      </c>
+      <c r="R15">
+        <v>0.99287332254</v>
+      </c>
+      <c r="S15">
+        <v>0.04277787602971447</v>
+      </c>
+      <c r="T15">
+        <v>0.04277787602971447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.23617</v>
+      </c>
+      <c r="I16">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J16">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.066056</v>
+      </c>
+      <c r="N16">
+        <v>0.198168</v>
+      </c>
+      <c r="O16">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P16">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q16">
+        <v>0.005200148506666667</v>
+      </c>
+      <c r="R16">
+        <v>0.04680133656</v>
+      </c>
+      <c r="S16">
+        <v>0.002016432235551344</v>
+      </c>
+      <c r="T16">
+        <v>0.002016432235551344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.23617</v>
+      </c>
+      <c r="I17">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J17">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.704398</v>
+      </c>
+      <c r="N17">
+        <v>2.113194</v>
+      </c>
+      <c r="O17">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P17">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q17">
+        <v>0.05545255855333332</v>
+      </c>
+      <c r="R17">
+        <v>0.49907302698</v>
+      </c>
+      <c r="S17">
+        <v>0.02150252564275608</v>
+      </c>
+      <c r="T17">
+        <v>0.02150252564275609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.039814</v>
+      </c>
+      <c r="I18">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J18">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P18">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q18">
+        <v>0.03484487659288889</v>
+      </c>
+      <c r="R18">
+        <v>0.313603889336</v>
+      </c>
+      <c r="S18">
+        <v>0.01351160112362797</v>
+      </c>
+      <c r="T18">
+        <v>0.01351160112362797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.039814</v>
+      </c>
+      <c r="I19">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J19">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.401354</v>
+      </c>
+      <c r="N19">
+        <v>4.204062</v>
+      </c>
+      <c r="O19">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P19">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q19">
+        <v>0.018597836052</v>
+      </c>
+      <c r="R19">
+        <v>0.167380524468</v>
+      </c>
+      <c r="S19">
+        <v>0.007211577915260415</v>
+      </c>
+      <c r="T19">
+        <v>0.007211577915260414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.128272419869807</v>
-      </c>
-      <c r="H10">
-        <v>0.128272419869807</v>
-      </c>
-      <c r="I10">
-        <v>0.4169950258029365</v>
-      </c>
-      <c r="J10">
-        <v>0.4169950258029365</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="N10">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="O10">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="P10">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="Q10">
-        <v>0.08961715619965967</v>
-      </c>
-      <c r="R10">
-        <v>0.08961715619965967</v>
-      </c>
-      <c r="S10">
-        <v>0.1092737970870524</v>
-      </c>
-      <c r="T10">
-        <v>0.1092737970870524</v>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.039814</v>
+      </c>
+      <c r="I20">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J20">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.066056</v>
+      </c>
+      <c r="N20">
+        <v>0.198168</v>
+      </c>
+      <c r="O20">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P20">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q20">
+        <v>0.0008766511946666668</v>
+      </c>
+      <c r="R20">
+        <v>0.007889860752000001</v>
+      </c>
+      <c r="S20">
+        <v>0.000339934085727405</v>
+      </c>
+      <c r="T20">
+        <v>0.000339934085727405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.039814</v>
+      </c>
+      <c r="I21">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J21">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.704398</v>
+      </c>
+      <c r="N21">
+        <v>2.113194</v>
+      </c>
+      <c r="O21">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P21">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q21">
+        <v>0.009348300657333334</v>
+      </c>
+      <c r="R21">
+        <v>0.084134705916</v>
+      </c>
+      <c r="S21">
+        <v>0.003624937781854981</v>
+      </c>
+      <c r="T21">
+        <v>0.003624937781854981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.451447</v>
+      </c>
+      <c r="I22">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J22">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P22">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q22">
+        <v>0.3951026021808889</v>
+      </c>
+      <c r="R22">
+        <v>3.555923419627999</v>
+      </c>
+      <c r="S22">
+        <v>0.1532067059943356</v>
+      </c>
+      <c r="T22">
+        <v>0.1532067059943356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.451447</v>
+      </c>
+      <c r="I23">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J23">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.401354</v>
+      </c>
+      <c r="N23">
+        <v>4.204062</v>
+      </c>
+      <c r="O23">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P23">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q23">
+        <v>0.210879019746</v>
+      </c>
+      <c r="R23">
+        <v>1.897911177714</v>
+      </c>
+      <c r="S23">
+        <v>0.08177136723540886</v>
+      </c>
+      <c r="T23">
+        <v>0.08177136723540884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.451447</v>
+      </c>
+      <c r="I24">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J24">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.066056</v>
+      </c>
+      <c r="N24">
+        <v>0.198168</v>
+      </c>
+      <c r="O24">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P24">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q24">
+        <v>0.009940261010666668</v>
+      </c>
+      <c r="R24">
+        <v>0.089462349096</v>
+      </c>
+      <c r="S24">
+        <v>0.003854478906901587</v>
+      </c>
+      <c r="T24">
+        <v>0.003854478906901587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.451447</v>
+      </c>
+      <c r="I25">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J25">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.704398</v>
+      </c>
+      <c r="N25">
+        <v>2.113194</v>
+      </c>
+      <c r="O25">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P25">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q25">
+        <v>0.1059994546353333</v>
+      </c>
+      <c r="R25">
+        <v>0.953995091718</v>
+      </c>
+      <c r="S25">
+        <v>0.04110281023773259</v>
+      </c>
+      <c r="T25">
+        <v>0.04110281023773259</v>
       </c>
     </row>
   </sheetData>
